--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1E15F-1EF5-47BB-A0E4-AB9898E96E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC908DF-34F8-44BD-83DA-5E6C761F7EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Цвет</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Цена</t>
   </si>
@@ -39,29 +33,41 @@
     <t>Наушники</t>
   </si>
   <si>
-    <t>asdf12</t>
-  </si>
-  <si>
     <t>кмп</t>
   </si>
   <si>
-    <t>pc2</t>
-  </si>
-  <si>
-    <t>Сини</t>
-  </si>
-  <si>
-    <t>Черный</t>
-  </si>
-  <si>
-    <t>Модель</t>
+    <t>Гарантия</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>В пизде</t>
+  </si>
+  <si>
+    <t>Пр.Строителей 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 650  руб.  </t>
+  </si>
+  <si>
+    <t>500 руб</t>
+  </si>
+  <si>
+    <t>Название товара</t>
+  </si>
+  <si>
+    <t>Цена со скидкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Год   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +77,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -101,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
@@ -386,55 +399,61 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>5123</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>123123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC908DF-34F8-44BD-83DA-5E6C761F7EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18468F2-D50B-4DA4-9D91-959F55560E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Цена</t>
   </si>
@@ -51,16 +51,19 @@
     <t xml:space="preserve"> 650  руб.  </t>
   </si>
   <si>
-    <t>500 руб</t>
-  </si>
-  <si>
     <t>Название товара</t>
   </si>
   <si>
     <t>Цена со скидкой</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Год   </t>
+    <t>2 года</t>
+  </si>
+  <si>
+    <t>Гавно</t>
+  </si>
+  <si>
+    <t>Гараж Влада</t>
   </si>
 </sst>
 </file>
@@ -396,23 +399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -428,8 +431,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -445,11 +448,19 @@
       <c r="C3">
         <v>120</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
